--- a/outputs-r202/o__Desulfovibrionales.xlsx
+++ b/outputs-r202/o__Desulfovibrionales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,11 @@
           <t>f__Desulfovibrionaceae</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>f__Desulfovibrionaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>f__Desulfovibrionaceae</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>f__Desulfovibrionaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -607,6 +622,11 @@
           <t>f__Desulfovibrionaceae</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>f__Desulfovibrionaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -646,6 +666,11 @@
           <t>f__Desulfovibrionaceae</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>f__Desulfovibrionaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -681,6 +706,11 @@
         <v>0.9999531980615403</v>
       </c>
       <c r="K6" t="inlineStr">
+        <is>
+          <t>f__Desulfovibrionaceae</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>f__Desulfovibrionaceae</t>
         </is>

--- a/outputs-r202/o__Desulfovibrionales.xlsx
+++ b/outputs-r202/o__Desulfovibrionales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,35 +499,35 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG075.fasta</t>
+          <t>RUG087.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1256438305427537</v>
+        <v>1.780572017768832e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>6.406323817012488e-10</v>
+        <v>2.22044110742677e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>6.406323817012488e-10</v>
+        <v>2.22044110742677e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>6.406323817012481e-10</v>
+        <v>2.22044110742677e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>6.406323817012481e-10</v>
+        <v>2.22044110742677e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>6.406323817012486e-10</v>
+        <v>2.22044110742677e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.874356165613452</v>
+        <v>0.9999821942796892</v>
       </c>
       <c r="I2" t="n">
-        <v>6.406323817012488e-10</v>
+        <v>2.22044110742677e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.874356165613452</v>
+        <v>0.9999821942796892</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -543,35 +543,35 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG087.fasta</t>
+          <t>RUG514.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.780572017768832e-05</v>
+        <v>2.391942834447058e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>2.22044110742677e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.22044110742677e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.22044110742677e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.22044110742677e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22044110742677e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999821942796892</v>
+        <v>0.9999997608055834</v>
       </c>
       <c r="I3" t="n">
-        <v>2.22044110742677e-14</v>
+        <v>2.220445982860536e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9999821942796892</v>
+        <v>0.9999997608055834</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -579,138 +579,6 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>f__Desulfovibrionaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG514.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.391942834447058e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.220445982860536e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.220445982860536e-14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.220445982860536e-14</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.220445982860536e-14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.220445982860536e-14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9999997608055834</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.220445982860536e-14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9999997608055834</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>f__Desulfovibrionaceae</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>f__Desulfovibrionaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG563.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.842881403187435e-07</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.220445998100033e-14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.220445998100033e-14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.220445998100033e-14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.220445998100033e-14</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.220445998100033e-14</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9999998157117264</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.220445998100033e-14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9999998157117264</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>f__Desulfovibrionaceae</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>f__Desulfovibrionaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>hRUG894.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1256387207167251</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.901422525713312e-10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.901422525713301e-10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.901422525713321e-10</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.901422525713329e-10</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.901422525713279e-10</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8743612751424215</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.901422525713287e-10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8743612751424215</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>f__Desulfovibrionaceae</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
         <is>
           <t>f__Desulfovibrionaceae</t>
         </is>
